--- a/simulation_scripts/params.xlsx
+++ b/simulation_scripts/params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescosheiban/neuralenv/thalamic-nest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\furkan1\thalamic-nest\simulation_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA1806E-9896-B146-B9D1-61E737B64049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC98D04-50F6-4A66-85A8-11B904364328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="960" windowWidth="14820" windowHeight="16760" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E842D276-6D81-8941-A9C2-E50DA8BB1D69}"/>
   </bookViews>
   <sheets>
     <sheet name="RE" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,13 +477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1200DB3-8D34-7E4F-9A00-40E565723CFD}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -494,7 +494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -560,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -582,7 +582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -604,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -624,13 +624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4F91A8-3D57-1F40-B9E4-D04E6895AB23}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="222" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -641,7 +641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -696,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -718,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -740,7 +740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
